--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F66D67C2-FDAF-4E64-B2E4-2FD8545ACADD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\Automation_Framework\MCCM\MCCM\src\main\java\Mccm\Pega\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC487CC-6F95-4FEF-A13F-2E0EAD0CA12B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -75,6 +79,12 @@
   </si>
   <si>
     <t>MCCM LC Outbound</t>
+  </si>
+  <si>
+    <t>DMPRealtimecontainers</t>
+  </si>
+  <si>
+    <t>CSM</t>
   </si>
 </sst>
 </file>
@@ -433,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +460,10 @@
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -486,8 +497,11 @@
       <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -520,6 +534,9 @@
       </c>
       <c r="K2" t="s">
         <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\Automation_Framework\MCCM\MCCM\src\main\java\Mccm\Pega\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC487CC-6F95-4FEF-A13F-2E0EAD0CA12B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{32C2AB28-6147-4A1E-8268-B518477ADC80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -85,6 +81,9 @@
   </si>
   <si>
     <t>CSM</t>
+  </si>
+  <si>
+    <t>NBABatchCampDMP3</t>
   </si>
 </sst>
 </file>
@@ -445,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +502,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{32C2AB28-6147-4A1E-8268-B518477ADC80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C929EBE-A9D6-40A5-90D6-22702C7A011C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:E17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +84,7 @@
     <t>CSM</t>
   </si>
   <si>
-    <t>NBABatchCampDMP3</t>
+    <t>NBABatchCamptestc4</t>
   </si>
 </sst>
 </file>
@@ -445,7 +446,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,4 +542,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C929EBE-A9D6-40A5-90D6-22702C7A011C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A8CEE460-F072-4BF8-BDB0-E81029E85BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>CSM</t>
   </si>
   <si>
-    <t>NBABatchCamptestc4</t>
+    <t>CampaignCD</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A8CEE460-F072-4BF8-BDB0-E81029E85BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E23F9490-1BE2-4599-94BA-6B2AFBB573D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>CampaignCD</t>
+  </si>
+  <si>
+    <t>d_latestdataloadFlag</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,9 +464,10 @@
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -500,8 +504,11 @@
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -537,6 +544,9 @@
       </c>
       <c r="L2" t="s">
         <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E23F9490-1BE2-4599-94BA-6B2AFBB573D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A93BDE6C-11AB-49BF-9B2D-EC3FEA47E344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -57,9 +57,6 @@
     <t>OverrideCamRunBlker value</t>
   </si>
   <si>
-    <t>NBABatchCampaigT3</t>
-  </si>
-  <si>
     <t>ConfigMrkStrtgy</t>
   </si>
   <si>
@@ -84,10 +81,10 @@
     <t>CSM</t>
   </si>
   <si>
-    <t>CampaignCD</t>
-  </si>
-  <si>
     <t>d_latestdataloadFlag</t>
+  </si>
+  <si>
+    <t>ProdLiveTest1</t>
   </si>
 </sst>
 </file>
@@ -448,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,19 +490,19 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -516,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -534,19 +531,19 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A93BDE6C-11AB-49BF-9B2D-EC3FEA47E344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1B72351-08DF-492A-87E6-17C8F07D73C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>ProdLiveTest1</t>
+  </si>
+  <si>
+    <t>MCCMLCOutbound</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +467,7 @@
     <col min="13" max="13" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,8 +507,11 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -544,6 +550,9 @@
       </c>
       <c r="M2" t="s">
         <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1B72351-08DF-492A-87E6-17C8F07D73C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{716E927E-0817-469F-B210-224DC317C9DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>MCCMLCOutbound</t>
+  </si>
+  <si>
+    <t>GetDataExtractDetails</t>
+  </si>
+  <si>
+    <t>ChanelFileNameIN</t>
+  </si>
+  <si>
+    <t>GetDataExtractDetailsIN</t>
+  </si>
+  <si>
+    <t>DPF_MMC_NBA_ONB_20200804</t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,9 +477,13 @@
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" customWidth="1"/>
     <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -510,8 +526,17 @@
       <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -553,6 +578,15 @@
       </c>
       <c r="N2" t="s">
         <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{716E927E-0817-469F-B210-224DC317C9DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F59DA293-29FE-4943-871D-F49C9B93EA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>DPF_MMC_NBA_ONB_20200804</t>
+  </si>
+  <si>
+    <t>D_LatestNBACampaignFlag</t>
+  </si>
+  <si>
+    <t>DLatestNBACampaignFlagIN</t>
   </si>
 </sst>
 </file>
@@ -460,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +487,7 @@
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" customWidth="1"/>
     <col min="17" max="17" width="28.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -535,6 +542,9 @@
       <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -587,6 +597,9 @@
       </c>
       <c r="Q2" t="s">
         <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F59DA293-29FE-4943-871D-F49C9B93EA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{03828D64-039C-4BF4-9CBE-CA640F50C109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>d_latestdataloadFlag</t>
   </si>
   <si>
-    <t>ProdLiveTest1</t>
-  </si>
-  <si>
     <t>MCCMLCOutbound</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>DLatestNBACampaignFlagIN</t>
+  </si>
+  <si>
+    <t>ProdLiveTest13</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,30 +531,30 @@
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -587,19 +587,19 @@
         <v>19</v>
       </c>
       <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{03828D64-039C-4BF4-9CBE-CA640F50C109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4EB486B8-81C2-4836-8B05-9274435FB6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
-    <t>ProdLiveTest13</t>
+    <t>ProdLiveTest15</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4EB486B8-81C2-4836-8B05-9274435FB6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{20132301-B81B-46EC-936F-EBB25DEC951D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
-    <t>ProdLiveTest15</t>
+    <t>ProdLiveTest21</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
